--- a/BestConfiguration.xlsx
+++ b/BestConfiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/tempLGCN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0474117-EF20-5543-82A2-77EE37672BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AD8DAC-A0E6-1645-B738-2020061FE4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35220" yWindow="-1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{FF965389-AF67-4F4D-84EF-15C51AF5333F}"/>
+    <workbookView xWindow="6160" yWindow="2380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{FF965389-AF67-4F4D-84EF-15C51AF5333F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ml-100k</t>
   </si>
@@ -79,13 +79,209 @@
   </si>
   <si>
     <t>python main.py --batch_size=900000 --seed=7   --decay=1e-06 --layer=4 --a_method=log --a_beta=0.02 --r_beta=20 --epochs=1001 --epochs_per_eval=20 --model=lgcn_b_ar --dataset=ml-1m</t>
+  </si>
+  <si>
+    <t>Temp: log - 0.005 | exp - 20.0</t>
+  </si>
+  <si>
+    <t>RMSE: 0.8359 at epoch 1580 with Recall, Precision: ('0.7410', '0.7540') | NCDG: {'@5': 0.8583, '@10': 0.8864, '@15': 0.9017, '@20': 0.9101}</t>
+  </si>
+  <si>
+    <t>Model: lgcn_b | DATASET: ml-1m | Layers: 5 | DECAY: 1e-06</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Temp: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 0.005 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>20.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RMSE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.8386 at epoch 1620</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with Recall, Precision: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>('0.7510', '0.7600')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | NCDG: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>{'@5': 0.8545, '@10': 0.8842, '@15': 0.8995, '@20': 0.908}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>lgcn_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DATASET: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ml-1m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Layers: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1e-06</t>
+    </r>
+  </si>
+  <si>
+    <t>On GPU</t>
+  </si>
+  <si>
+    <t>On MAC, CPU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +295,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFB42419"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -137,6 +346,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54F95AC-72B5-C849-9AE2-0BCEA9E72079}">
-  <dimension ref="F12:F14"/>
+  <dimension ref="D12:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +775,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="5"/>
+      <c r="F30" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="5"/>
+      <c r="F31" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D29:D31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BestConfiguration.xlsx
+++ b/BestConfiguration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/tempLGCN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AD8DAC-A0E6-1645-B738-2020061FE4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8FE903-B9D4-C445-AC22-6DB9746CFA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6160" yWindow="2380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{FF965389-AF67-4F4D-84EF-15C51AF5333F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>ml-100k</t>
   </si>
@@ -275,6 +275,137 @@
   </si>
   <si>
     <t>On MAC, CPU</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Temp: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>20.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RMSE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.8377 at epoch 1440</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with Recall, Precision: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>('0.7460', '0.7620')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | NCDG: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>{'@5': 0.8544, '@10': 0.8843, '@15': 0.8995, '@20': 0.9079}</t>
+    </r>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Run it twice and the same result, which confirms there is no uncontrolled randomness</t>
   </si>
 </sst>
 </file>
@@ -336,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -352,6 +483,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,74 +891,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54F95AC-72B5-C849-9AE2-0BCEA9E72079}">
-  <dimension ref="D12:F31"/>
+  <dimension ref="B12:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
+    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
+    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="7" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
-      <c r="F21" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-      <c r="F22" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="5" t="s">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="5"/>
-      <c r="F30" s="6" t="s">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="5"/>
+      <c r="E30" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="5"/>
-      <c r="F31" s="6" t="s">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="5"/>
+      <c r="E31" s="6" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="8"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="8"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E20:E22"/>
+  <mergeCells count="5">
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BestConfiguration.xlsx
+++ b/BestConfiguration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/tempLGCN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8FE903-B9D4-C445-AC22-6DB9746CFA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597F64FB-1D5B-5F4B-96E7-487ED8F7E9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6160" yWindow="2380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{FF965389-AF67-4F4D-84EF-15C51AF5333F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>ml-100k</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>Run it twice and the same result, which confirms there is no uncontrolled randomness</t>
+  </si>
+  <si>
+    <t>RMSE: 0.8355 at epoch 1460 with Recall, Precision: ('0.7360', '0.7540') | NCDG: {'@5': 0.8585, '@10': 0.8868, '@15': 0.9021, '@20': 0.9104}</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
   <dimension ref="B12:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="D24" sqref="D24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,6 +940,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="5"/>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="5"/>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="5" t="s">
         <v>21</v>
@@ -983,12 +1006,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D24:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
